--- a/final.xlsx
+++ b/final.xlsx
@@ -421,17 +421,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="10" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="50" customWidth="1" min="5" max="5"/>
-    <col width="17" customWidth="1" min="6" max="6"/>
-    <col width="3" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="50" customWidth="1" min="9" max="9"/>
     <col width="10" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -472,7 +472,7 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>18:00-24</t>
+          <t>18:00-24:00</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
